--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H2">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I2">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J2">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.788186999999999</v>
+        <v>7.368211</v>
       </c>
       <c r="N2">
-        <v>29.364561</v>
+        <v>22.104633</v>
       </c>
       <c r="O2">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="P2">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="Q2">
-        <v>459.7170478719498</v>
+        <v>422.8391660707312</v>
       </c>
       <c r="R2">
-        <v>4137.453430847549</v>
+        <v>3805.552494636581</v>
       </c>
       <c r="S2">
-        <v>0.1005830282279788</v>
+        <v>0.08375338767689205</v>
       </c>
       <c r="T2">
-        <v>0.1005830282279788</v>
+        <v>0.08375338767689207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H3">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I3">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J3">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.05628333333333</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N3">
-        <v>54.16884999999999</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O3">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059877</v>
       </c>
       <c r="P3">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059876</v>
       </c>
       <c r="Q3">
-        <v>848.0407321130552</v>
+        <v>1036.195052910878</v>
       </c>
       <c r="R3">
-        <v>7632.366589017498</v>
+        <v>9325.755476197899</v>
       </c>
       <c r="S3">
-        <v>0.1855456639936536</v>
+        <v>0.205243158484532</v>
       </c>
       <c r="T3">
-        <v>0.1855456639936537</v>
+        <v>0.205243158484532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H4">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I4">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J4">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.165572</v>
+        <v>18.794071</v>
       </c>
       <c r="N4">
-        <v>42.496716</v>
+        <v>56.38221299999999</v>
       </c>
       <c r="O4">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716344</v>
       </c>
       <c r="P4">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716343</v>
       </c>
       <c r="Q4">
-        <v>665.3075734308665</v>
+        <v>1078.534437832211</v>
       </c>
       <c r="R4">
-        <v>5987.768160877799</v>
+        <v>9706.809940489899</v>
       </c>
       <c r="S4">
-        <v>0.1455648659288452</v>
+        <v>0.2136294840755829</v>
       </c>
       <c r="T4">
-        <v>0.1455648659288452</v>
+        <v>0.2136294840755829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H5">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I5">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J5">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.510488</v>
+        <v>13.338818</v>
       </c>
       <c r="N5">
-        <v>43.531464</v>
+        <v>40.016454</v>
       </c>
       <c r="O5">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="P5">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="Q5">
-        <v>681.5070764934666</v>
+        <v>765.4740994101904</v>
       </c>
       <c r="R5">
-        <v>6133.563688441199</v>
+        <v>6889.266894691714</v>
       </c>
       <c r="S5">
-        <v>0.1491092093056403</v>
+        <v>0.1516204130290929</v>
       </c>
       <c r="T5">
-        <v>0.1491092093056403</v>
+        <v>0.151620413029093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I6">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J6">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.788186999999999</v>
+        <v>7.368211</v>
       </c>
       <c r="N6">
-        <v>29.364561</v>
+        <v>22.104633</v>
       </c>
       <c r="O6">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="P6">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="Q6">
-        <v>140.441677080044</v>
+        <v>105.7196710605987</v>
       </c>
       <c r="R6">
-        <v>1263.975093720396</v>
+        <v>951.4770395453882</v>
       </c>
       <c r="S6">
-        <v>0.03072770356356553</v>
+        <v>0.02094030379846765</v>
       </c>
       <c r="T6">
-        <v>0.03072770356356554</v>
+        <v>0.02094030379846765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I7">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J7">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.05628333333333</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N7">
-        <v>54.16884999999999</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O7">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059877</v>
       </c>
       <c r="P7">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059876</v>
       </c>
       <c r="Q7">
-        <v>259.0729736942889</v>
+        <v>259.072973694289</v>
       </c>
       <c r="R7">
         <v>2331.6567632486</v>
       </c>
       <c r="S7">
-        <v>0.05668344114455676</v>
+        <v>0.05131558508180727</v>
       </c>
       <c r="T7">
-        <v>0.05668344114455676</v>
+        <v>0.05131558508180726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I8">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J8">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.165572</v>
+        <v>18.794071</v>
       </c>
       <c r="N8">
-        <v>42.496716</v>
+        <v>56.38221299999999</v>
       </c>
       <c r="O8">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716344</v>
       </c>
       <c r="P8">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716343</v>
       </c>
       <c r="Q8">
-        <v>203.2487414143307</v>
+        <v>269.6588091749186</v>
       </c>
       <c r="R8">
-        <v>1829.238672728976</v>
+        <v>2426.929282574268</v>
       </c>
       <c r="S8">
-        <v>0.04446947092698006</v>
+        <v>0.05341236242419913</v>
       </c>
       <c r="T8">
-        <v>0.04446947092698007</v>
+        <v>0.05341236242419913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I9">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J9">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.510488</v>
+        <v>13.338818</v>
       </c>
       <c r="N9">
-        <v>43.531464</v>
+        <v>40.016454</v>
       </c>
       <c r="O9">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="P9">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="Q9">
-        <v>208.1976233157227</v>
+        <v>191.3864099843493</v>
       </c>
       <c r="R9">
-        <v>1873.778609841504</v>
+        <v>1722.477689859144</v>
       </c>
       <c r="S9">
-        <v>0.0455522533260424</v>
+        <v>0.03790864583444593</v>
       </c>
       <c r="T9">
-        <v>0.0455522533260424</v>
+        <v>0.03790864583444593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H10">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I10">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J10">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.788186999999999</v>
+        <v>7.368211</v>
       </c>
       <c r="N10">
-        <v>29.364561</v>
+        <v>22.104633</v>
       </c>
       <c r="O10">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="P10">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="Q10">
-        <v>174.267634985522</v>
+        <v>106.959817110079</v>
       </c>
       <c r="R10">
-        <v>1568.408714869698</v>
+        <v>962.6383539907109</v>
       </c>
       <c r="S10">
-        <v>0.03812859786277543</v>
+        <v>0.02118594431900712</v>
       </c>
       <c r="T10">
-        <v>0.03812859786277543</v>
+        <v>0.02118594431900712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H11">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I11">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J11">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.05628333333333</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N11">
-        <v>54.16884999999999</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O11">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059877</v>
       </c>
       <c r="P11">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059876</v>
       </c>
       <c r="Q11">
-        <v>321.4717692999221</v>
+        <v>262.1120327608834</v>
       </c>
       <c r="R11">
-        <v>2893.2459236993</v>
+        <v>2359.00829484795</v>
       </c>
       <c r="S11">
-        <v>0.07033588202932789</v>
+        <v>0.05191754325550889</v>
       </c>
       <c r="T11">
-        <v>0.07033588202932789</v>
+        <v>0.05191754325550888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H12">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I12">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J12">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.165572</v>
+        <v>18.794071</v>
       </c>
       <c r="N12">
-        <v>42.496716</v>
+        <v>56.38221299999999</v>
       </c>
       <c r="O12">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716344</v>
       </c>
       <c r="P12">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716343</v>
       </c>
       <c r="Q12">
-        <v>252.2020401384987</v>
+        <v>272.8220455296189</v>
       </c>
       <c r="R12">
-        <v>2269.818361246488</v>
+        <v>2455.398409766571</v>
       </c>
       <c r="S12">
-        <v>0.05518012664492326</v>
+        <v>0.05403891687323646</v>
       </c>
       <c r="T12">
-        <v>0.05518012664492326</v>
+        <v>0.05403891687323645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H13">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I13">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J13">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.510488</v>
+        <v>13.338818</v>
       </c>
       <c r="N13">
-        <v>43.531464</v>
+        <v>40.016454</v>
       </c>
       <c r="O13">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="P13">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="Q13">
-        <v>258.3428806831947</v>
+        <v>193.631470888202</v>
       </c>
       <c r="R13">
-        <v>2325.085926148752</v>
+        <v>1742.683237993818</v>
       </c>
       <c r="S13">
-        <v>0.05652370165635664</v>
+        <v>0.03835333372366371</v>
       </c>
       <c r="T13">
-        <v>0.05652370165635664</v>
+        <v>0.03835333372366371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H14">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I14">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J14">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.788186999999999</v>
+        <v>7.368211</v>
       </c>
       <c r="N14">
-        <v>29.364561</v>
+        <v>22.104633</v>
       </c>
       <c r="O14">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="P14">
-        <v>0.1731793198378281</v>
+        <v>0.1280150446959744</v>
       </c>
       <c r="Q14">
-        <v>17.093711300236</v>
+        <v>10.78087160676</v>
       </c>
       <c r="R14">
-        <v>153.843401702124</v>
+        <v>97.02784446084002</v>
       </c>
       <c r="S14">
-        <v>0.003739990183508407</v>
+        <v>0.002135408901607588</v>
       </c>
       <c r="T14">
-        <v>0.003739990183508407</v>
+        <v>0.002135408901607588</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H15">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I15">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J15">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.05628333333333</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N15">
-        <v>54.16884999999999</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O15">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059877</v>
       </c>
       <c r="P15">
-        <v>0.3194641527042524</v>
+        <v>0.3137092461059876</v>
       </c>
       <c r="Q15">
-        <v>31.53279503704444</v>
+        <v>26.41923152200001</v>
       </c>
       <c r="R15">
-        <v>283.7951553334</v>
+        <v>237.7730836980001</v>
       </c>
       <c r="S15">
-        <v>0.006899165536714115</v>
+        <v>0.005232959284139492</v>
       </c>
       <c r="T15">
-        <v>0.006899165536714115</v>
+        <v>0.005232959284139492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H16">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I16">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J16">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.165572</v>
+        <v>18.794071</v>
       </c>
       <c r="N16">
-        <v>42.496716</v>
+        <v>56.38221299999999</v>
       </c>
       <c r="O16">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716344</v>
       </c>
       <c r="P16">
-        <v>0.2506270184737769</v>
+        <v>0.3265275436716343</v>
       </c>
       <c r="Q16">
-        <v>24.73820720534933</v>
+        <v>27.49873292436</v>
       </c>
       <c r="R16">
-        <v>222.643864848144</v>
+        <v>247.48859631924</v>
       </c>
       <c r="S16">
-        <v>0.005412554973028361</v>
+        <v>0.005446780298615907</v>
       </c>
       <c r="T16">
-        <v>0.005412554973028361</v>
+        <v>0.005446780298615908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H17">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I17">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J17">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.510488</v>
+        <v>13.338818</v>
       </c>
       <c r="N17">
-        <v>43.531464</v>
+        <v>40.016454</v>
       </c>
       <c r="O17">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="P17">
-        <v>0.2567295089841425</v>
+        <v>0.2317481655264036</v>
       </c>
       <c r="Q17">
-        <v>25.34055517099734</v>
+        <v>19.51682494488</v>
       </c>
       <c r="R17">
-        <v>228.064996538976</v>
+        <v>175.65142450392</v>
       </c>
       <c r="S17">
-        <v>0.005544344696103225</v>
+        <v>0.003865772939201051</v>
       </c>
       <c r="T17">
-        <v>0.005544344696103225</v>
+        <v>0.003865772939201052</v>
       </c>
     </row>
   </sheetData>
